--- a/model_exports/labels/2.0_False_False_1_1.xlsx
+++ b/model_exports/labels/2.0_False_False_1_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C733"/>
+  <dimension ref="A1:C735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,89 +453,89 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-536414184204800001</t>
+          <t>t-675691648802795522</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-536957598252417024</t>
+          <t>t-933792655041064962</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-675691648802795522</t>
+          <t>t-1025792018793021440</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-793443964900737024</t>
+          <t>t-495123711071387649</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-494463913853874176</t>
+          <t>t-508961106849574912</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-494829977268146176</t>
+          <t>t-509046359354511360</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-495010606047821824</t>
+          <t>t-509083951655174144</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -544,11 +544,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-495017350790668289</t>
+          <t>t-509100730960314368</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -557,37 +557,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-495805012929708033</t>
+          <t>t-509131102796414976</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-500035862709948417</t>
+          <t>t-509142523403862017</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-500685725482770433</t>
+          <t>t-509208349511262208</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -596,11 +596,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-501752547083059200</t>
+          <t>t-509223264921878528</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -609,20 +609,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-501732075599593472</t>
+          <t>t-509224131880300544</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-610974241895354368</t>
+          <t>t-511851013155090432</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-706805466739949568</t>
+          <t>t-512006361937616896</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,11 +648,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-760665387113472001</t>
+          <t>t-512017939579432960</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -661,20 +661,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-760674522622152704</t>
+          <t>t-517204809452380161</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-1027818664391847936</t>
+          <t>t-561169293573115904</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,20 +687,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-1027909740905553920</t>
+          <t>t-577847446270832640</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-1032695855143370753</t>
+          <t>t-599446630732079104</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,20 +713,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-1033108055162941440</t>
+          <t>t-627039115188383744</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-1047160746386382848</t>
+          <t>t-690710236638777344</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-551476214402387968</t>
+          <t>t-690724653006921728</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,20 +752,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-551489050045988864</t>
+          <t>t-887418286014570496</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-575319219870437377</t>
+          <t>t-1016827484665499650</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,11 +778,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-575466667171426304</t>
+          <t>t-1016832637904695296</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -791,20 +791,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-605091889558261760</t>
+          <t>t-501433457286053889</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-605138894867161088</t>
+          <t>t-501490224640573440</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,46 +817,46 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-605351836636311552</t>
+          <t>t-573511311906115584</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-693851248634810368</t>
+          <t>t-573530576818434048</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-694942679688437760</t>
+          <t>t-575319219870437377</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-695354495606259712</t>
+          <t>t-575466667171426304</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-696194593700712448</t>
+          <t>t-622509518346268672</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,7 +882,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-712108446167011328</t>
+          <t>t-641712529677398016</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,24 +895,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-719525216439910400</t>
+          <t>t-693851248634810368</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-719704738913083392</t>
+          <t>t-694942679688437760</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-765195503457882112</t>
+          <t>t-695354495606259712</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,50 +934,50 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-765297031346655232</t>
+          <t>t-696194593700712448</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-767329938500308992</t>
+          <t>t-701855843747241986</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-815615714082095105</t>
+          <t>t-712108446167011328</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-816012131535613952</t>
+          <t>t-771105696226025472</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -986,11 +986,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-816043428630839296</t>
+          <t>t-773705145389645824</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -999,20 +999,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-816046695377158145</t>
+          <t>t-775697386924445696</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-816056629867188225</t>
+          <t>t-815615714082095105</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,20 +1025,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-816367923770118149</t>
+          <t>t-816012131535613952</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-816380623434592257</t>
+          <t>t-816043428630839296</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,59 +1051,59 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-830539164638703616</t>
+          <t>t-816046695377158145</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-867771334083923968</t>
+          <t>t-816056629867188225</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-906729471721570304</t>
+          <t>t-816367923770118149</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-937797554313551873</t>
+          <t>t-816380623434592257</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-937878737382772737</t>
+          <t>t-858824188815056896</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-938887720075702272</t>
+          <t>t-859408582407749634</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,20 +1129,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-950310866641149952</t>
+          <t>t-859423315986874372</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-956711426009202688</t>
+          <t>t-859882605604425731</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,24 +1155,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-965645492616036357</t>
+          <t>t-867771334083923968</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-965648872474398721</t>
+          <t>t-875748360933847041</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1181,7 +1181,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-965652051077357569</t>
+          <t>t-893450286144131072</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-966072585061625856</t>
+          <t>t-906729471721570304</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,7 +1207,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-966155045300588545</t>
+          <t>t-937797554313551873</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,76 +1220,76 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-966356829596016640</t>
+          <t>t-937878737382772737</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-966362179913093121</t>
+          <t>t-938887720075702272</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-966449125788090370</t>
+          <t>t-970872683402539011</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-966450069024239616</t>
+          <t>t-977248381662892039</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-966465261950906369</t>
+          <t>t-977294782048428032</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-966698278606856197</t>
+          <t>t-982113517636435969</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1298,7 +1298,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-966704060270370817</t>
+          <t>t-982126921570893825</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,33 +1311,33 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-966706278016999424</t>
+          <t>t-985145363618246656</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-966769885220163586</t>
+          <t>t-985306564868354049</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-973668678867746816</t>
+          <t>t-1024388985282383872</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,20 +1350,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-973683665661198337</t>
+          <t>t-1036653090664075265</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-1024388985282383872</t>
+          <t>t-1036716876020285440</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,20 +1376,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1030587514820669441</t>
+          <t>t-1037295289206546433</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-1030625730407874563</t>
+          <t>t-1037346167451992064</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,7 +1402,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-1031145618503360513</t>
+          <t>t-1037351232451608577</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,11 +1415,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1031309689848508416</t>
+          <t>t-1037351271697657857</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1428,20 +1428,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-1036653090664075265</t>
+          <t>t-1037367364231344128</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1036716876020285440</t>
+          <t>t-1037535909296709632</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,11 +1454,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-1037295289206546433</t>
+          <t>t-1045002319061012482</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1467,20 +1467,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-1037346167451992064</t>
+          <t>t-1045014122092482560</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-1037351232451608577</t>
+          <t>t-1045027654121000962</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,24 +1493,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-1037351271697657857</t>
+          <t>t-1045031106968465408</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1037367364231344128</t>
+          <t>t-1045065376575475712</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1519,7 +1519,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-1037535909296709632</t>
+          <t>t-1060177367417655297</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,11 +1532,11 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-1045002319061012482</t>
+          <t>t-1060184735106781189</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1545,59 +1545,59 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-1045014122092482560</t>
+          <t>t-1060185768549908480</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-1045027654121000962</t>
+          <t>t-1060186673835900928</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-1045031106968465408</t>
+          <t>t-1060281450493136896</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-1045065376575475712</t>
+          <t>t-1060341719915470848</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-875896081233567744</t>
+          <t>t-1060518882832658433</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,11 +1610,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-502103720327671808</t>
+          <t>t-1060908480901640192</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1623,59 +1623,59 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-507610683022643200</t>
+          <t>t-822160325608734720</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-762401879758372864</t>
+          <t>t-822824168110493696</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-762402279601344512</t>
+          <t>t-823329247884251137</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-762404827229892608</t>
+          <t>t-754609055683915776</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-827438952974004224</t>
+          <t>t-778024515909537792</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,33 +1688,33 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-1026541253037453312</t>
+          <t>t-925753092301295616</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-1026546271392165888</t>
+          <t>t-1012224879310057472</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-1026556162186117121</t>
+          <t>t-533166195508117505</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,72 +1727,72 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-1026678249978585088</t>
+          <t>t-594694315915350017</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-1026720073308925953</t>
+          <t>t-606774570255654912</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-573406774969044992</t>
+          <t>t-619895281761423360</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-573566918876995584</t>
+          <t>t-641417749898522624</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-574621995633111040</t>
+          <t>t-765818303898058752</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-608562753129840640</t>
+          <t>t-841634951439220736</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,24 +1805,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-765818303898058752</t>
+          <t>t-924921911510949890</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-768798517900906496</t>
+          <t>t-924939317381758976</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -1831,24 +1831,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-835997827369156608</t>
+          <t>t-925210606361300992</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-950256330316615680</t>
+          <t>t-925257914817892352</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,11 +1857,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-989808164907319296</t>
+          <t>t-992796128654524417</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-1049900608294137856</t>
+          <t>t-538858836992331776</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-538858836992331776</t>
+          <t>t-764602141449170944</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,7 +1896,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-764602141449170944</t>
+          <t>t-611838090278121474</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-885277243991314432</t>
+          <t>t-612267884463673344</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,7 +1922,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-885292685086646272</t>
+          <t>t-612280320520425472</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-979396065278427139</t>
+          <t>t-619513224057061376</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-611838090278121474</t>
+          <t>t-639446444949180417</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,33 +1961,33 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-612267884463673344</t>
+          <t>t-676063553162379265</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-612280320520425472</t>
+          <t>t-710560200558653440</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-745031440031694848</t>
+          <t>t-756129418616139777</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,20 +2000,20 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-747995724978192384</t>
+          <t>t-910574474956812289</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-767098705790906368</t>
+          <t>t-1016140956322713601</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,50 +2026,50 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-824338590389960704</t>
+          <t>t-1050075728891535361</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-903082857492566018</t>
+          <t>t-1050076017593745408</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-1016140956322713601</t>
+          <t>t-1050077658590134272</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-1018620410819219456</t>
+          <t>t-1050092626786037760</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2078,33 +2078,33 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-836993229967015937</t>
+          <t>t-1050210928594173952</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-837317730147713024</t>
+          <t>t-1050446607055896576</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-878362748232622081</t>
+          <t>t-1051200746312663040</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,33 +2117,33 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-966707160049766400</t>
+          <t>t-767772450964725760</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-967596306297483265</t>
+          <t>t-512768543989825541</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-967763105525764097</t>
+          <t>t-1027386544536150016</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,11 +2156,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-967806729865060352</t>
+          <t>t-626070342885249024</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -2169,11 +2169,11 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-967827685333454849</t>
+          <t>t-641288611472654336</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2182,11 +2182,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-968065709459750912</t>
+          <t>t-697497279213625344</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-968790557077262336</t>
+          <t>t-697558252012355585</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,11 +2208,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-524878421172953088</t>
+          <t>t-878362748232622081</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -2221,20 +2221,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-672497431242756096</t>
+          <t>t-981162868749033472</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-897129980584439812</t>
+          <t>t-981305166392692736</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,20 +2247,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-921072406919352320</t>
+          <t>t-981306180961275904</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-921102349552275456</t>
+          <t>t-697866091025080320</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-921122924505026560</t>
+          <t>t-533211918698553344</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,50 +2286,50 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-921266455856939008</t>
+          <t>t-533272996883210240</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-921341244332113926</t>
+          <t>t-533345881412878336</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-921699631360176128</t>
+          <t>t-950852460532428800</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-568441199297761281</t>
+          <t>t-953648628647706624</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -2338,24 +2338,24 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-568878359158984704</t>
+          <t>t-552005598615597057</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-783792055160082432</t>
+          <t>t-552017511018168320</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2364,7 +2364,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-818386811332558848</t>
+          <t>t-552021252442169344</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,7 +2377,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-818898970961473536</t>
+          <t>t-552065463610802176</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,7 +2390,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-953935668199215104</t>
+          <t>t-552468777791524864</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2403,7 +2403,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-953991296196149248</t>
+          <t>t-915529742002135041</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2416,20 +2416,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-956627624150880257</t>
+          <t>t-915535227245776896</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-986841970411823104</t>
+          <t>t-956627624150880257</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2468,24 +2468,24 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-583930739512713216</t>
+          <t>t-665687399033397248</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-949552218650365952</t>
+          <t>t-923100909521068032</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2494,37 +2494,37 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-547131830642569216</t>
+          <t>t-547652103607697408</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-568623295811194880</t>
+          <t>t-949552218650365952</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-692803310668087296</t>
+          <t>t-952138958368051200</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-778616752993214464</t>
+          <t>t-952754172880863232</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,7 +2546,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-873219337427062785</t>
+          <t>t-568623295811194880</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,7 +2559,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-1022207950511923200</t>
+          <t>t-625832003070509056</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2572,7 +2572,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-611182304984109057</t>
+          <t>t-626848405877301248</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,7 +2585,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-902218968345272321</t>
+          <t>t-863530798334476291</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,11 +2598,11 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-698546841881853953</t>
+          <t>t-1022207950511923200</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -2611,20 +2611,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-733769545261944833</t>
+          <t>t-1062308914354642944</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-745905684248694789</t>
+          <t>t-602966767602831362</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,20 +2637,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-745992462448140288</t>
+          <t>t-602969826642898945</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-746083614291562497</t>
+          <t>t-603005702697713664</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,20 +2663,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-886294080040423425</t>
+          <t>t-603598228022501376</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-891497407179104257</t>
+          <t>t-720931143055491072</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,37 +2689,37 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-917499339278254080</t>
+          <t>t-590950091256631296</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-948592886060380161</t>
+          <t>t-986530301030682624</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-962803499766513664</t>
+          <t>t-907490044335636480</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -2728,24 +2728,24 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-992484226795823105</t>
+          <t>t-621245283935121408</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-1043269235474984960</t>
+          <t>t-708373253648207873</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -2754,7 +2754,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-861649200160710656</t>
+          <t>t-906974272832376832</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,20 +2767,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-899745107900940288</t>
+          <t>t-972059634101047296</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-899747204986019844</t>
+          <t>t-979726568175165440</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,20 +2793,20 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-743015826601697281</t>
+          <t>t-987005505154535425</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-872405308236337153</t>
+          <t>t-828748393916809216</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,37 +2819,37 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-758205502480388096</t>
+          <t>t-829760036348035072</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-758575120290091008</t>
+          <t>t-636384018599030785</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-799981773354463232</t>
+          <t>t-715573202714562561</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2858,33 +2858,33 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-799998393695305728</t>
+          <t>t-913204200187863040</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-800091318642950144</t>
+          <t>t-941641219024748544</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-1029734360872771584</t>
+          <t>t-988107827615952898</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,20 +2897,20 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-1034302397882015745</t>
+          <t>t-1003953189820010496</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-1034317413309919232</t>
+          <t>t-903173716451909632</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,11 +2923,11 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-1034572709651533825</t>
+          <t>t-861649200160710656</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -2936,20 +2936,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-1034867901902319618</t>
+          <t>t-1006535367464509440</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-1034875857125425152</t>
+          <t>t-1006670876169949190</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-1034886406957662208</t>
+          <t>t-695269003892228096</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,33 +2975,33 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-1034922534326738944</t>
+          <t>t-707739170878439424</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-1035345459290746880</t>
+          <t>t-840282206979444737</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-1035480584934514690</t>
+          <t>t-840289139450925056</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,20 +3014,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-1035555438882897926</t>
+          <t>t-769366123678621696</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-1036020306895413248</t>
+          <t>t-743015826601697281</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1036935289485316096</t>
+          <t>t-1005457960703754240</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,11 +3053,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1037072521940623360</t>
+          <t>t-1034302397882015745</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -3066,7 +3066,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1037363401314455553</t>
+          <t>t-1034317413309919232</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,7 +3079,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1037404586812821505</t>
+          <t>t-1034572709651533825</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,7 +3092,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1037450313920393218</t>
+          <t>t-1034867901902319618</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,50 +3105,50 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1037475943969898497</t>
+          <t>t-1034875857125425152</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1037727143038517248</t>
+          <t>t-1034886406957662208</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1037749001658032128</t>
+          <t>t-1034922534326738944</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1054403005032947712</t>
+          <t>t-1035345459290746880</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-985241133159796736</t>
+          <t>t-1035480584934514690</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,20 +3170,20 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1021604631217164289</t>
+          <t>t-1035555438882897926</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1021652512343031808</t>
+          <t>t-1036020306895413248</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,89 +3196,89 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1021683870188503041</t>
+          <t>t-1036935289485316096</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1021786238024527873</t>
+          <t>t-1037072521940623360</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-1031076096287105024</t>
+          <t>t-1037363401314455553</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-599936713796886528</t>
+          <t>t-1037404586812821505</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-601913063172771840</t>
+          <t>t-1037450313920393218</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-602589391198900226</t>
+          <t>t-1037475943969898497</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-635524506925314049</t>
+          <t>t-1037727143038517248</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -3287,11 +3287,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-652481072199036928</t>
+          <t>t-1037749001658032128</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -3300,11 +3300,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-662196453281038336</t>
+          <t>t-1039228208804233216</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -3313,11 +3313,11 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-737800453916897280</t>
+          <t>t-1050435927066198018</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -3326,20 +3326,20 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-752596726066843648</t>
+          <t>t-1054403005032947712</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-753413745230094338</t>
+          <t>t-898040952396193792</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,37 +3352,37 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-780146894357929984</t>
+          <t>t-898113774225301505</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-794700824404430848</t>
+          <t>t-924790802882146304</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-858067034772566016</t>
+          <t>t-1031076096287105024</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -3391,11 +3391,11 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-858109132586483713</t>
+          <t>t-657266493659435008</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -3404,11 +3404,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-870028367990599681</t>
+          <t>t-997483790145589248</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-894616667350872064</t>
+          <t>t-997521947297710081</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,7 +3430,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-895668017060651009</t>
+          <t>t-604384366886834177</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-907946100618907648</t>
+          <t>t-604797500965265408</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,24 +3456,24 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-925358435398488064</t>
+          <t>t-605112787141033985</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-1014570924681687042</t>
+          <t>t-605369768720396288</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3482,20 +3482,20 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-1028684190169149440</t>
+          <t>t-652481072199036928</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-1028764502517592065</t>
+          <t>t-746718356405882880</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,98 +3508,98 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-1036976718718881793</t>
+          <t>t-752596726066843648</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-1039643454140231684</t>
+          <t>t-753413745230094338</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-1039968877537456128</t>
+          <t>t-785997107094093825</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-636611275666128896</t>
+          <t>t-794700824404430848</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-1016850546236542983</t>
+          <t>t-870028367990599681</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-1042832069506871296</t>
+          <t>t-925358435398488064</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-673774894543470592</t>
+          <t>t-965598107676430336</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-673911765848035328</t>
+          <t>t-992252736560222210</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,7 +3612,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-538650662780022784</t>
+          <t>t-998567520113225733</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,7 +3625,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-569509595133173761</t>
+          <t>t-1009549219240308737</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,7 +3638,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-616575922674769920</t>
+          <t>t-1016477854391992320</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,24 +3651,24 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-616694572853256192</t>
+          <t>t-1035669454246563841</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-638674545726066688</t>
+          <t>t-1039643454140231684</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3677,11 +3677,11 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-638724428944150528</t>
+          <t>t-1039968877537456128</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -3690,20 +3690,20 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-639699321500364800</t>
+          <t>t-533407970244456448</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-639804238848237568</t>
+          <t>t-561309176475824128</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,11 +3716,11 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-660890514741399552</t>
+          <t>t-578194227852505088</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="n">
         <v>1</v>
@@ -3729,24 +3729,24 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-661115206525915136</t>
+          <t>t-593171698846830592</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-661147212135727104</t>
+          <t>t-611619605899939841</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3755,20 +3755,20 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-661201099085377537</t>
+          <t>t-727306437798576130</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-716748651113091072</t>
+          <t>t-1042832069506871296</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,7 +3781,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-716774298296389632</t>
+          <t>t-534896855906537472</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,7 +3794,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-726061174727532544</t>
+          <t>t-655463817921626112</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,7 +3807,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-755726869270523904</t>
+          <t>t-836289804664979457</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,20 +3820,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-767994872578056192</t>
+          <t>t-903370281829498882</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-783921439044841474</t>
+          <t>t-569509595133173761</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,7 +3846,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-784017385615265792</t>
+          <t>t-609714781507993601</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,11 +3859,11 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-784336997477261312</t>
+          <t>t-609790992309469184</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-784835805999198208</t>
+          <t>t-609807635727151104</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,20 +3885,20 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-894936422980964352</t>
+          <t>t-610006959677382657</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-913153226706472965</t>
+          <t>t-610466198136954881</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,33 +3911,33 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-936972059766415360</t>
+          <t>t-616575922674769920</t>
         </is>
       </c>
       <c r="B268" t="n">
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-972048308909826048</t>
+          <t>t-616694572853256192</t>
         </is>
       </c>
       <c r="B269" t="n">
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-984477965856772096</t>
+          <t>t-707575261483687937</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,7 +3950,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-984491425478971393</t>
+          <t>t-721969035412422656</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,59 +3963,59 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-984517270725644288</t>
+          <t>t-722671206881746944</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-985567499843489798</t>
+          <t>t-739781293882347520</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-1006258184636510210</t>
+          <t>t-755726869270523904</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-1037619174145712128</t>
+          <t>t-775760180936048640</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-1041944531015483392</t>
+          <t>t-775760740204552192</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,20 +4028,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-1042049144620285953</t>
+          <t>t-775766510182731776</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-1049984041888505856</t>
+          <t>t-775772257327128576</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,46 +4054,46 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-1051063984038776837</t>
+          <t>t-775805122920189952</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-541450804008218624</t>
+          <t>t-776165588917944320</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-685265326112559104</t>
+          <t>t-968863674306834432</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-903255663417204736</t>
+          <t>t-1026228357996969984</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,24 +4106,24 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-659041979200880644</t>
+          <t>t-859608993752379392</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-684979291696664576</t>
+          <t>t-659041979200880644</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -4132,50 +4132,50 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-670921727346614272</t>
+          <t>t-726931802141659137</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-801380815166930945</t>
+          <t>t-549835920762220544</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-821117207245713408</t>
+          <t>t-669588910935285760</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-951353773321945088</t>
+          <t>t-669601333348073473</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -4184,7 +4184,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-951370648210767877</t>
+          <t>t-795702151049834496</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,24 +4197,24 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-983975898042064896</t>
+          <t>t-578199507671904256</t>
         </is>
       </c>
       <c r="B290" t="n">
         <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-984343410269151233</t>
+          <t>t-578943021716250624</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-1060159476664356864</t>
+          <t>t-581325099023892480</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,33 +4236,33 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-581325099023892480</t>
+          <t>t-581326319130116096</t>
         </is>
       </c>
       <c r="B293" t="n">
         <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-581326319130116096</t>
+          <t>t-581406863343779840</t>
         </is>
       </c>
       <c r="B294" t="n">
         <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-581406863343779840</t>
+          <t>t-581587820248109056</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,11 +4275,11 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-581587820248109056</t>
+          <t>t-933464546110529538</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -4288,7 +4288,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-755764875155083264</t>
+          <t>t-573292412430376960</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,7 +4301,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-565107354606518272</t>
+          <t>t-778893752471543808</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,11 +4314,11 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-573292412430376960</t>
+          <t>t-778933660334559232</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
         <v>1</v>
@@ -4327,20 +4327,20 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-668121380727226368</t>
+          <t>t-788874378666737664</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-772934103733788672</t>
+          <t>t-891969624929075201</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,7 +4353,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-772960588171403264</t>
+          <t>t-892105609071349760</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -4366,20 +4366,20 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-773538620472979456</t>
+          <t>t-892129259686428672</t>
         </is>
       </c>
       <c r="B303" t="n">
         <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-773979956305100800</t>
+          <t>t-913738686994501632</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,7 +4392,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-862378347007025154</t>
+          <t>t-913756608974540800</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-899250634855251968</t>
+          <t>t-913812012400087040</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,20 +4418,20 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-913738686994501632</t>
+          <t>t-576618970368876544</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-913756608974540800</t>
+          <t>t-578003881596215296</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,11 +4444,11 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-913812012400087040</t>
+          <t>t-648439576441171968</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -4457,7 +4457,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-1049061003617607680</t>
+          <t>t-649621017187512320</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,7 +4470,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-1049351090909667329</t>
+          <t>t-787849177581649920</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4483,46 +4483,46 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-1050209065153036288</t>
+          <t>t-1042410099652919297</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-798356661148655616</t>
+          <t>t-925720058432811008</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-798650812511588352</t>
+          <t>t-839501967894405121</t>
         </is>
       </c>
       <c r="B314" t="n">
         <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-850359691771293697</t>
+          <t>t-839604530048299008</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,46 +4535,46 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-887375379186548736</t>
+          <t>t-860196024056414208</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-906773843066441728</t>
+          <t>t-884636889948471296</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-906922961621454848</t>
+          <t>t-873677712304463872</t>
         </is>
       </c>
       <c r="B318" t="n">
         <v>1</v>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-906981528483364865</t>
+          <t>t-822759706078969856</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,7 +4587,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-906982446905876480</t>
+          <t>t-822817083591446532</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,7 +4600,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-925720058432811008</t>
+          <t>t-837738761547091968</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,7 +4613,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-572808490965733378</t>
+          <t>t-599007393494605824</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,33 +4626,33 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-599363330575364096</t>
+          <t>t-599125027116568576</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-860196024056414208</t>
+          <t>t-640921153591050240</t>
         </is>
       </c>
       <c r="B324" t="n">
         <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-884636889948471296</t>
+          <t>t-724222646435508224</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,33 +4665,33 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-1047526401644138497</t>
+          <t>t-774740590848188416</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-873677712304463872</t>
+          <t>t-851578277311373312</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-837738761547091968</t>
+          <t>t-878774409280016384</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,20 +4704,20 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-601384798897115138</t>
+          <t>t-1041460734738063360</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-601584910428729344</t>
+          <t>t-1041507023660081152</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,7 +4730,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-880307230364508160</t>
+          <t>t-612283618052825088</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,24 +4743,24 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-992231007083421698</t>
+          <t>t-680032445673148416</t>
         </is>
       </c>
       <c r="B332" t="n">
         <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-992892560405250048</t>
+          <t>t-639559017052803076</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -4769,20 +4769,20 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-1028993321757077505</t>
+          <t>t-646070620120215552</t>
         </is>
       </c>
       <c r="B334" t="n">
         <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-629437596280750080</t>
+          <t>t-646419866795118592</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-771587937746071552</t>
+          <t>t-983744396364480512</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,7 +4808,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-643571264011898881</t>
+          <t>t-660109346915770368</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,7 +4821,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-1055172080499515392</t>
+          <t>t-660117216885477376</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,20 +4834,20 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-1055204302220943368</t>
+          <t>t-660467638917660672</t>
         </is>
       </c>
       <c r="B339" t="n">
         <v>1</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-676228752599314434</t>
+          <t>t-678946767459618818</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,33 +4860,33 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-676234421217845248</t>
+          <t>t-679082878148341760</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-676358315065016322</t>
+          <t>t-762366384747589634</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-756001538783326208</t>
+          <t>t-762414153185173504</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-756128433025843200</t>
+          <t>t-762454271832928257</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,11 +4912,11 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-756153001300156416</t>
+          <t>t-919294420465229824</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4925,7 +4925,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-756172674531942400</t>
+          <t>t-803234433000148994</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,7 +4938,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-981921278876684288</t>
+          <t>t-803236909183107073</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,7 +4951,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-653702331221999616</t>
+          <t>t-803260822801649664</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-659172274482733056</t>
+          <t>t-803260889940062209</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-659184469690175488</t>
+          <t>t-803271446357282816</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,37 +4990,37 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-660109346915770368</t>
+          <t>t-667518003613818880</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-660117216885477376</t>
+          <t>t-736702899519004674</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-660467638917660672</t>
+          <t>t-794366500865982467</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -5029,7 +5029,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-886426015374946304</t>
+          <t>t-863149830931185664</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5042,7 +5042,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-736702899519004674</t>
+          <t>t-685125009120038913</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,20 +5055,20 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-762742863394254850</t>
+          <t>t-842138233173626880</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-668278058953084928</t>
+          <t>t-842141623454687232</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,37 +5081,37 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-715587588204015616</t>
+          <t>t-842494366820286465</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-794366500865982467</t>
+          <t>t-981289690258071552</t>
         </is>
       </c>
       <c r="B359" t="n">
         <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-954775347962241025</t>
+          <t>t-1054497487657021440</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" t="n">
         <v>1</v>
@@ -5120,11 +5120,11 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-954792612103442432</t>
+          <t>t-733752725972746240</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -5133,46 +5133,46 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-954866409300987904</t>
+          <t>t-733764949433012224</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-751197637794230272</t>
+          <t>t-734458703231885312</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-1009997647032344576</t>
+          <t>t-744360846420107265</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-1021764160093401089</t>
+          <t>t-829844333205413888</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,7 +5185,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-1022188431483387905</t>
+          <t>t-751165986527674368</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,7 +5198,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-1022188766964998144</t>
+          <t>t-751167208219406336</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,11 +5211,11 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-1022577266117824514</t>
+          <t>t-1044155993779851264</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -5224,24 +5224,24 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-1023560708376748032</t>
+          <t>t-1046763431649574912</t>
         </is>
       </c>
       <c r="B369" t="n">
         <v>1</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1023767948165562368</t>
+          <t>t-753754552936136704</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -5250,20 +5250,20 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-1023931290045829121</t>
+          <t>t-1016293496980955136</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-1024052229152669696</t>
+          <t>t-895778141523894272</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,7 +5276,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-911704954636824576</t>
+          <t>t-768829814824247296</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-843607928133292033</t>
+          <t>t-768861970195881986</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,7 +5302,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-971386931857772544</t>
+          <t>t-768886684955975680</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,7 +5315,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-996559091932770305</t>
+          <t>t-769194684576960513</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -5328,7 +5328,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-922899400032178176</t>
+          <t>t-785262083638169600</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,7 +5341,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-922934157185110016</t>
+          <t>t-817388602090987520</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,7 +5354,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-1032899444918898688</t>
+          <t>t-823317212446556161</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5367,7 +5367,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-1042371802121596928</t>
+          <t>t-841401006797815808</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,7 +5380,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-785262083638169600</t>
+          <t>t-848529770258288642</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,7 +5393,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-804685877838565376</t>
+          <t>t-966639239407525888</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,46 +5406,46 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-805294233020231681</t>
+          <t>t-1036704309923246081</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-805399384150147076</t>
+          <t>t-912214251749744641</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-814469186323939328</t>
+          <t>t-961482044650930177</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-817388602090987520</t>
+          <t>t-527207598521843712</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,24 +5458,24 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-885945201105219584</t>
+          <t>t-527210275955818496</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-885947457330438145</t>
+          <t>t-527591945795690496</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
         <v>1</v>
@@ -5484,11 +5484,11 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-830540407763300352</t>
+          <t>t-673357306764140544</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -5497,20 +5497,20 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-861539001962041345</t>
+          <t>t-850388688303529986</t>
         </is>
       </c>
       <c r="B390" t="n">
         <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-860847907427233792</t>
+          <t>t-850540226590253057</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5523,11 +5523,11 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-884885746984681473</t>
+          <t>t-881960500829016064</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -5536,20 +5536,20 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-884938114657128448</t>
+          <t>t-989520576460001280</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-951198867181236228</t>
+          <t>t-1016375311733284864</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,20 +5562,20 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-881979226697740288</t>
+          <t>t-517603456123944960</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-906573891346165760</t>
+          <t>t-517609652138569728</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,11 +5588,11 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-1026649986782650369</t>
+          <t>t-518412519053221888</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -5601,7 +5601,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-907371676148670465</t>
+          <t>t-519245102263574528</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,24 +5614,24 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-913905079392047105</t>
+          <t>t-519387709392314368</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-955145334002417666</t>
+          <t>t-519393743326441472</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
         <v>1</v>
@@ -5640,37 +5640,37 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-974764041968132096</t>
+          <t>t-519395800687083520</t>
         </is>
       </c>
       <c r="B401" t="n">
         <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-974840717116956673</t>
+          <t>t-519401695307390976</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-499943241962487808</t>
+          <t>t-650288114116730880</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
         <v>1</v>
@@ -5679,46 +5679,46 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-519240969838166016</t>
+          <t>t-773146400129441792</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-527207598521843712</t>
+          <t>t-953177789628407808</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-527210275955818496</t>
+          <t>t-953520796361744384</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-527591945795690496</t>
+          <t>t-984081755006259201</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,7 +5731,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-630691491766251520</t>
+          <t>t-591229240311439360</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,7 +5744,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-850388688303529986</t>
+          <t>t-674956056209063937</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -5757,7 +5757,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-850540226590253057</t>
+          <t>t-1057306605287550976</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,7 +5770,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-912723744195596289</t>
+          <t>t-1057548272053698560</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,11 +5783,11 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-965605976698126341</t>
+          <t>t-722253771867181056</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -5796,46 +5796,46 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-1022200671666401281</t>
+          <t>t-722818069320470529</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-513212132176175105</t>
+          <t>t-722837910135832577</t>
         </is>
       </c>
       <c r="B414" t="n">
         <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-1027253242261069824</t>
+          <t>t-722884869374619648</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-661802861446209536</t>
+          <t>t-723517423786299392</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,7 +5848,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-824672856466423809</t>
+          <t>t-800968114653401088</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,24 +5861,24 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-953177789628407808</t>
+          <t>t-957342329127473158</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-953520796361744384</t>
+          <t>t-819866466162012160</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -5887,7 +5887,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-984081755006259201</t>
+          <t>t-957544710825967616</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,11 +5900,11 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-517992573227778048</t>
+          <t>t-541965663666184192</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -5913,7 +5913,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-676836902981513216</t>
+          <t>t-1049943076859461632</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,7 +5926,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-635444360306368512</t>
+          <t>t-538959622858883072</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,33 +5939,33 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-522926675542421504</t>
+          <t>t-540907891566575616</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-699600707318587392</t>
+          <t>t-541174080833978368</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-644488507239628800</t>
+          <t>t-577791187240787968</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,7 +5978,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-644488513442983937</t>
+          <t>t-578574154607280128</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,20 +5991,20 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-951835055445413893</t>
+          <t>t-595190714205634560</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-529740815221153793</t>
+          <t>t-653264904581984256</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,7 +6017,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-965860574339923968</t>
+          <t>t-653992755027386368</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -6030,11 +6030,11 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-984048304144166912</t>
+          <t>t-809171890690523137</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -6043,33 +6043,33 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-984354039067529216</t>
+          <t>t-884135398854635520</t>
         </is>
       </c>
       <c r="B432" t="n">
         <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-538736663154135040</t>
+          <t>t-884163532958441472</t>
         </is>
       </c>
       <c r="B433" t="n">
         <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-538959622858883072</t>
+          <t>t-884173621224239104</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6082,7 +6082,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-544508576757477376</t>
+          <t>t-884176826679136256</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,63 +6095,63 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-544546124984762370</t>
+          <t>t-884179431887167489</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-544574124832468992</t>
+          <t>t-884282035384320001</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-544578399596187648</t>
+          <t>t-884290062598451200</t>
         </is>
       </c>
       <c r="B438" t="n">
         <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-544615900180393984</t>
+          <t>t-884310032518664194</t>
         </is>
       </c>
       <c r="B439" t="n">
         <v>1</v>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-544793457190268928</t>
+          <t>t-884325033430200320</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -6160,33 +6160,33 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-544806009018265601</t>
+          <t>t-913063437118341121</t>
         </is>
       </c>
       <c r="B441" t="n">
         <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-545012520793436160</t>
+          <t>t-948989121611075584</t>
         </is>
       </c>
       <c r="B442" t="n">
         <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-545215683404267523</t>
+          <t>t-965524750264135680</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,20 +6199,20 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-576412478135005185</t>
+          <t>t-966320851678318593</t>
         </is>
       </c>
       <c r="B444" t="n">
         <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-694507587149111296</t>
+          <t>t-967380419707535360</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,24 +6225,24 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-734290700469166080</t>
+          <t>t-1001548678748954624</t>
         </is>
       </c>
       <c r="B446" t="n">
         <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-783909177920020480</t>
+          <t>t-1001557802375110657</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C447" t="n">
         <v>1</v>
@@ -6251,33 +6251,33 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-784305124269182976</t>
+          <t>t-1024937575906271233</t>
         </is>
       </c>
       <c r="B448" t="n">
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-884135398854635520</t>
+          <t>t-1038002421543391232</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-884163532958441472</t>
+          <t>t-1057165607152562176</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -6290,24 +6290,24 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-884173621224239104</t>
+          <t>t-545381752093806593</t>
         </is>
       </c>
       <c r="B451" t="n">
         <v>1</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-884176826679136256</t>
+          <t>t-560682074529484800</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C452" t="n">
         <v>1</v>
@@ -6316,20 +6316,20 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-884179431887167489</t>
+          <t>t-652334979544948736</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-884282035384320001</t>
+          <t>t-684255556144619520</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,37 +6342,37 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-884290062598451200</t>
+          <t>t-699529516008476673</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-884310032518664194</t>
+          <t>t-565566410605473792</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-884325033430200320</t>
+          <t>t-1050114319227195392</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-914844848359985152</t>
+          <t>t-657116242692734976</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,46 +6394,46 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-915131811310714880</t>
+          <t>t-720181387190530048</t>
         </is>
       </c>
       <c r="B459" t="n">
         <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-915495031691235329</t>
+          <t>t-778479315071664128</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-915561177966505984</t>
+          <t>t-1006487935733174274</t>
         </is>
       </c>
       <c r="B461" t="n">
         <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-1038002421543391232</t>
+          <t>t-580822339648122880</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,89 +6446,89 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-1048194085624995840</t>
+          <t>t-581167008596758528</t>
         </is>
       </c>
       <c r="B463" t="n">
         <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-649269312625209344</t>
+          <t>t-722410262058397697</t>
         </is>
       </c>
       <c r="B464" t="n">
         <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-545381752093806593</t>
+          <t>t-817303376253882368</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-549859905231142914</t>
+          <t>t-591541513768673280</t>
         </is>
       </c>
       <c r="B466" t="n">
         <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-740095983602782208</t>
+          <t>t-892583343426072576</t>
         </is>
       </c>
       <c r="B467" t="n">
         <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-750337802257129474</t>
+          <t>t-801458708786151425</t>
         </is>
       </c>
       <c r="B468" t="n">
         <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-764828802384007168</t>
+          <t>t-743905323543629825</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C469" t="n">
         <v>0</v>
@@ -6537,24 +6537,24 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-800633887386988544</t>
+          <t>t-877183876254269441</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-816609916018454528</t>
+          <t>t-877213422538158080</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C471" t="n">
         <v>0</v>
@@ -6563,7 +6563,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-629936150220685312</t>
+          <t>t-800696529770151938</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -6576,11 +6576,11 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-832880826807418880</t>
+          <t>t-955871714914766849</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
@@ -6589,24 +6589,24 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-972395558735368192</t>
+          <t>t-605693478799065088</t>
         </is>
       </c>
       <c r="B474" t="n">
         <v>1</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-1057351782484115458</t>
+          <t>t-605727874348384256</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -6615,11 +6615,11 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-565566410605473792</t>
+          <t>t-605802486604046337</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -6628,63 +6628,63 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-1050114319227195392</t>
+          <t>t-605842449722777601</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-720181387190530048</t>
+          <t>t-605899935117017088</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-580746776262545409</t>
+          <t>t-940349476509814789</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-580822339648122880</t>
+          <t>t-994824289349242881</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-581167008596758528</t>
+          <t>t-994897053523341314</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -6693,7 +6693,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-581115572282376192</t>
+          <t>t-995019257841889281</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,37 +6706,37 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-957917970390450177</t>
+          <t>t-995256568429064192</t>
         </is>
       </c>
       <c r="B483" t="n">
         <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-895521975434530816</t>
+          <t>t-1021061872274018305</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-895525136580923394</t>
+          <t>t-618340855657721856</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485" t="n">
         <v>1</v>
@@ -6745,11 +6745,11 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-624613462476337152</t>
+          <t>t-769927127475097602</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
         <v>1</v>
@@ -6758,20 +6758,20 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-624628271745998852</t>
+          <t>t-619208680349765633</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-877183876254269441</t>
+          <t>t-623896530324467712</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,7 +6784,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-877213422538158080</t>
+          <t>t-633703854580830208</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,7 +6797,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-955539710214057984</t>
+          <t>t-849766480828878849</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,11 +6810,11 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-955816204769390593</t>
+          <t>t-899696948046856192</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -6823,7 +6823,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-1050165943790460929</t>
+          <t>t-636903909362167808</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,7 +6836,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-968152808062160896</t>
+          <t>t-639695836943884288</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,7 +6849,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-608642817427156992</t>
+          <t>t-656425382145597440</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,11 +6862,11 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-940349476509814789</t>
+          <t>t-1056610127975997440</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C495" t="n">
         <v>1</v>
@@ -6875,46 +6875,46 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-610036486059200513</t>
+          <t>t-723039191961985026</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-612221773757681664</t>
+          <t>t-859792354395533312</t>
         </is>
       </c>
       <c r="B497" t="n">
         <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-753246884345487361</t>
+          <t>t-860626885302202369</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-880840050245849088</t>
+          <t>t-861365904025714688</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,7 +6927,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-633703854580830208</t>
+          <t>t-861657024731467783</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,7 +6940,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-639695836943884288</t>
+          <t>t-861897864632578048</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,7 +6953,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-643112220348534784</t>
+          <t>t-862094425949917185</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6966,7 +6966,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-984045729260982272</t>
+          <t>t-862663540179701760</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,7 +6979,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-664402656019005440</t>
+          <t>t-974126323248586752</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -6992,7 +6992,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-910016271554576384</t>
+          <t>t-784413747376893952</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,11 +7005,11 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-660041764225589248</t>
+          <t>t-681422251338674177</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C506" t="n">
         <v>1</v>
@@ -7018,7 +7018,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-1005827335977885696</t>
+          <t>t-829095437466533888</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,11 +7031,11 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-676501548063657984</t>
+          <t>t-952055483354972160</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" t="n">
         <v>0</v>
@@ -7044,24 +7044,24 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-685089211784019968</t>
+          <t>t-956932857389309953</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-704826129178370050</t>
+          <t>t-957576777848717312</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C510" t="n">
         <v>1</v>
@@ -7070,7 +7070,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-835605594534981633</t>
+          <t>t-736607968997838848</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,20 +7083,20 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-835708598772727808</t>
+          <t>t-741709377703411712</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-715202576552169472</t>
+          <t>t-949613613874077704</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,11 +7109,11 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-781871738888065024</t>
+          <t>t-737703959993913344</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
         <v>0</v>
@@ -7122,7 +7122,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-734423204488445952</t>
+          <t>t-737753796202385408</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,11 +7135,11 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-979633616404844544</t>
+          <t>t-737755886211477504</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516" t="n">
         <v>1</v>
@@ -7148,7 +7148,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-737558350011867138</t>
+          <t>t-737784335567364096</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,7 +7161,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-738417908926320643</t>
+          <t>t-737884729626791936</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,33 +7174,33 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-738664460173381632</t>
+          <t>t-737979350088323072</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-751418791951790080</t>
+          <t>t-737766517157330945</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-957930793187397632</t>
+          <t>t-737944067741454336</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -7213,20 +7213,20 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-963803678573547520</t>
+          <t>t-933719239126642689</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-890865444307042304</t>
+          <t>t-949338992599883776</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -7239,20 +7239,20 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-811198180654272512</t>
+          <t>t-949550500269166593</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-906057103172923392</t>
+          <t>t-956876178509516800</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,7 +7265,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-740042390703099904</t>
+          <t>t-1006391548668514309</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,7 +7278,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-740196910300962816</t>
+          <t>t-1006459221448318981</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,7 +7291,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-740256345773985793</t>
+          <t>t-957730126799802368</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,20 +7304,20 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-740517137236647936</t>
+          <t>t-739230360207261700</t>
         </is>
       </c>
       <c r="B529" t="n">
         <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-755694559401762816</t>
+          <t>t-740264154712449024</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,20 +7330,20 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-760154379307458560</t>
+          <t>t-1002274254954647552</t>
         </is>
       </c>
       <c r="B531" t="n">
         <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-767290506456039424</t>
+          <t>t-1002283218085863430</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,7 +7356,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-775906484295204864</t>
+          <t>t-1005463006455754752</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,63 +7369,63 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-792319235351535616</t>
+          <t>t-740666936263118848</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-803544744215384064</t>
+          <t>t-741525012784553985</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-834802174559412225</t>
+          <t>t-743816866171326464</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-831171283400409088</t>
+          <t>t-746386418465914880</t>
         </is>
       </c>
       <c r="B537" t="n">
         <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-834314501134614528</t>
+          <t>t-775632377695600641</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C538" t="n">
         <v>1</v>
@@ -7434,7 +7434,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-834805481759789056</t>
+          <t>t-801835115894755328</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,7 +7447,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-852631745438601216</t>
+          <t>t-803544744215384064</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,11 +7460,11 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-989189175357276160</t>
+          <t>t-834086991646048256</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
         <v>1</v>
@@ -7473,7 +7473,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-859444598309097473</t>
+          <t>t-834349788053266432</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,7 +7486,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-859536182866317312</t>
+          <t>t-862319925528023040</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,7 +7499,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-861335479475634176</t>
+          <t>t-862320640791121920</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,7 +7512,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-887201249715789824</t>
+          <t>t-851409413646802945</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -7525,7 +7525,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-1038090181595877376</t>
+          <t>t-852631745438601216</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -7538,11 +7538,11 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-948508791448002560</t>
+          <t>t-989189175357276160</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
         <v>1</v>
@@ -7551,24 +7551,24 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-977185697940623360</t>
+          <t>t-992831860215615489</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-986982915262308353</t>
+          <t>t-862454112507580416</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
         <v>0</v>
@@ -7577,7 +7577,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-1017566472292495360</t>
+          <t>t-867414851802599424</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,20 +7590,20 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-1030184521969410055</t>
+          <t>t-991783836206936065</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-1051774073523634182</t>
+          <t>t-875285232924188672</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,11 +7616,11 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-1052071039923044352</t>
+          <t>t-1002130830792241153</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C553" t="n">
         <v>1</v>
@@ -7629,7 +7629,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-1052145118726238209</t>
+          <t>t-890626982773481473</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,20 +7642,20 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-1052182549513035776</t>
+          <t>t-948508791448002560</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-675498810152325120</t>
+          <t>t-955559981331419136</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,7 +7668,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-956368490293800960</t>
+          <t>t-949248780280516608</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,50 +7681,50 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-956387965382610945</t>
+          <t>t-1004723222363955200</t>
         </is>
       </c>
       <c r="B558" t="n">
         <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-498746062224375809</t>
+          <t>t-1006233702052057088</t>
         </is>
       </c>
       <c r="B559" t="n">
         <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-499104320717996032</t>
+          <t>t-1028077071480832000</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-616630261191716864</t>
+          <t>t-1051774073523634182</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C561" t="n">
         <v>0</v>
@@ -7733,7 +7733,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-627052129107087360</t>
+          <t>t-1052071039923044352</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,33 +7746,33 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-627062516095455232</t>
+          <t>t-1052145118726238209</t>
         </is>
       </c>
       <c r="B563" t="n">
         <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-627070573118488576</t>
+          <t>t-1052182549513035776</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-627075912631083008</t>
+          <t>t-498746062224375809</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,24 +7785,24 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-627076573653561344</t>
+          <t>t-499104320717996032</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-686071224749821953</t>
+          <t>t-510001639617351681</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C567" t="n">
         <v>1</v>
@@ -7811,98 +7811,98 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-719019371499130881</t>
+          <t>t-557932086149918722</t>
         </is>
       </c>
       <c r="B568" t="n">
         <v>0</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-740084104088199168</t>
+          <t>t-558466774392266752</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-828910647861616640</t>
+          <t>t-558501767688642560</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-829261659726295045</t>
+          <t>t-558892309320724482</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-831833976029454338</t>
+          <t>t-559263075183104000</t>
         </is>
       </c>
       <c r="B572" t="n">
         <v>0</v>
       </c>
       <c r="C572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-854250685419986949</t>
+          <t>t-559573400780156928</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-854262837673246720</t>
+          <t>t-575891615593721856</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-910155731134853120</t>
+          <t>t-645961089671405568</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,7 +7915,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-910165111620329472</t>
+          <t>t-648493309824925696</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,7 +7928,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-912643743894949888</t>
+          <t>t-666134929525178369</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,11 +7941,11 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-1061409798053224448</t>
+          <t>t-666141677652848640</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
         <v>1</v>
@@ -7954,20 +7954,20 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-1061535382406348800</t>
+          <t>t-666146479564681217</t>
         </is>
       </c>
       <c r="B579" t="n">
         <v>1</v>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-520490218210594817</t>
+          <t>t-666155143696506880</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,11 +7980,11 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-650617914194694144</t>
+          <t>t-666158894691954689</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
         <v>0</v>
@@ -7993,20 +7993,20 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-732742567545077761</t>
+          <t>t-666536410439028736</t>
         </is>
       </c>
       <c r="B582" t="n">
         <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-732880819631460356</t>
+          <t>t-666602420022194177</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,11 +8019,11 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-732926405818753025</t>
+          <t>t-666664955077242881</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C584" t="n">
         <v>1</v>
@@ -8032,7 +8032,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-733131015837745153</t>
+          <t>t-667221889505296388</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,24 +8045,24 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-733131209660735493</t>
+          <t>t-667625624421445632</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-733188233803128832</t>
+          <t>t-667976594137350144</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
         <v>1</v>
@@ -8071,46 +8071,46 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-733201290151514113</t>
+          <t>t-668796235004932096</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-869476060991152129</t>
+          <t>t-669882207800942593</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-871870603011043328</t>
+          <t>t-755613145079484416</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-872126007855038464</t>
+          <t>t-785398387059269632</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,11 +8123,11 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-503088287381082112</t>
+          <t>t-806863559212679168</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C592" t="n">
         <v>1</v>
@@ -8136,11 +8136,11 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-532513757776183296</t>
+          <t>t-831833976029454338</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C593" t="n">
         <v>1</v>
@@ -8149,11 +8149,11 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-536372518622212096</t>
+          <t>t-865948979183222784</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C594" t="n">
         <v>1</v>
@@ -8162,11 +8162,11 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-536830333530804225</t>
+          <t>t-1031392016255647744</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
         <v>1</v>
@@ -8175,11 +8175,11 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-536843974086897664</t>
+          <t>t-1061409798053224448</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
         <v>1</v>
@@ -8188,20 +8188,20 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-546829406539243520</t>
+          <t>t-1061535382406348800</t>
         </is>
       </c>
       <c r="B597" t="n">
         <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-546846288554500096</t>
+          <t>t-511340405753786369</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-547603292180578305</t>
+          <t>t-520490218210594817</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-547621920103862272</t>
+          <t>t-914680114595602432</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,7 +8240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-547636294059184128</t>
+          <t>t-916572694472155137</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,7 +8253,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-547637054578769920</t>
+          <t>t-976046458834116609</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,20 +8266,20 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-587184590302814208</t>
+          <t>t-1015491573092528128</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-587194258815221760</t>
+          <t>t-532513757776183296</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,7 +8292,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-587194893052747777</t>
+          <t>t-573022010348982272</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-721601854761619457</t>
+          <t>t-583500409458688000</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,7 +8318,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-721697193174798336</t>
+          <t>t-583500450495795200</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-769774311968079872</t>
+          <t>t-583501741481594881</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-839825336552468480</t>
+          <t>t-583504251168497664</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,33 +8357,33 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-845583720950128640</t>
+          <t>t-583504875067056129</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-880004628884013057</t>
+          <t>t-584246834618474497</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-928491239808233473</t>
+          <t>t-587184590302814208</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,7 +8396,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-928882270554877953</t>
+          <t>t-587194258815221760</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-928900503953588224</t>
+          <t>t-587194893052747777</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-928967839649804289</t>
+          <t>t-662632429539057666</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-929323628226686976</t>
+          <t>t-662681193154920448</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,7 +8448,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-1024894521568448513</t>
+          <t>t-663567974029131776</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,11 +8461,11 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-1061598368164528128</t>
+          <t>t-666604346558271489</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C618" t="n">
         <v>1</v>
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-1061625768696930304</t>
+          <t>t-667233953934282752</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-1061782167494320130</t>
+          <t>t-683221184775733248</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-1062219458046058496</t>
+          <t>t-685773216275533824</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,11 +8513,11 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-586217765666623488</t>
+          <t>t-713640428369612800</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C622" t="n">
         <v>1</v>
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-756176490119647232</t>
+          <t>t-713641932795215874</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-930049646444945408</t>
+          <t>t-713645035460251648</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-930646694097645568</t>
+          <t>t-713649642907406336</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-528210205746532352</t>
+          <t>t-713682083688767488</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-528777132097298433</t>
+          <t>t-714598783724597248</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,20 +8591,20 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-528826156708278272</t>
+          <t>t-714729459107119104</t>
         </is>
       </c>
       <c r="B628" t="n">
         <v>1</v>
       </c>
       <c r="C628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-528877062564503552</t>
+          <t>t-715080311059517440</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-529071458085900288</t>
+          <t>t-789409624138985476</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-529085805034094593</t>
+          <t>t-789409631646785537</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,33 +8643,33 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-529166911674671104</t>
+          <t>t-842271490141634560</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-529236028171620353</t>
+          <t>t-842322052103122944</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-529319778377166848</t>
+          <t>t-842905808266448896</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-530135697877766146</t>
+          <t>t-842910185718931456</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,33 +8695,33 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-530218899833241600</t>
+          <t>t-1024894521568448513</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-546954418067738625</t>
+          <t>t-508042249457139712</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-547052080943214593</t>
+          <t>t-563978477183840256</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-547052404026249217</t>
+          <t>t-706405441522143232</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-547288951820521472</t>
+          <t>t-756176490119647232</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-547333815882887168</t>
+          <t>t-839656521227091969</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,7 +8773,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-547368132457689088</t>
+          <t>t-964120690952564737</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-547431547935412224</t>
+          <t>t-528210205746532352</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-547610562692009985</t>
+          <t>t-528777132097298433</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-547694551637700608</t>
+          <t>t-528826156708278272</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,20 +8825,20 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-664725934935707650</t>
+          <t>t-528877062564503552</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-678547534269177856</t>
+          <t>t-529071458085900288</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-712147646559879168</t>
+          <t>t-529085805034094593</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-788398448508739585</t>
+          <t>t-529166911674671104</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-788457694453637120</t>
+          <t>t-529236028171620353</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-795674749028462592</t>
+          <t>t-529319778377166848</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,76 +8903,76 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-817345259164221440</t>
+          <t>t-530135697877766146</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-929369497420685312</t>
+          <t>t-530218899833241600</t>
         </is>
       </c>
       <c r="B653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-1000752833484881921</t>
+          <t>t-538727466139803648</t>
         </is>
       </c>
       <c r="B654" t="n">
         <v>0</v>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-1001352081465212928</t>
+          <t>t-768634144851013633</t>
         </is>
       </c>
       <c r="B655" t="n">
         <v>1</v>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-1028122158990381056</t>
+          <t>t-769506262551715840</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-780295387017949184</t>
+          <t>t-795674749028462592</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
         <v>1</v>
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-971295308981383168</t>
+          <t>t-846329507103436800</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,11 +8994,11 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-527311291191263232</t>
+          <t>t-971295308981383168</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C659" t="n">
         <v>1</v>
@@ -9007,33 +9007,33 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-744191847128436736</t>
+          <t>t-664089575191478272</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-777029515289563136</t>
+          <t>t-740483903366926337</t>
         </is>
       </c>
       <c r="B661" t="n">
         <v>1</v>
       </c>
       <c r="C661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-777052253362335745</t>
+          <t>t-777029515289563136</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,11 +9046,11 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-830684745323327488</t>
+          <t>t-777052253362335745</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C663" t="n">
         <v>1</v>
@@ -9059,11 +9059,11 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-969977636670918656</t>
+          <t>t-829520315575177217</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -9072,20 +9072,20 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-983954928610697216</t>
+          <t>t-532101195737735168</t>
         </is>
       </c>
       <c r="B665" t="n">
         <v>0</v>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-564676313139531776</t>
+          <t>t-532807839664730113</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,20 +9098,20 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-564736068306878464</t>
+          <t>t-534323907642142720</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-694769781573050368</t>
+          <t>t-558428892898131968</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,20 +9124,20 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-697703131493355520</t>
+          <t>t-558596887519850496</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-698358832959873025</t>
+          <t>t-564676313139531776</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,37 +9150,37 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-699788036561743872</t>
+          <t>t-564736068306878464</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-757365069608923136</t>
+          <t>t-703773712068116482</t>
         </is>
       </c>
       <c r="B672" t="n">
         <v>1</v>
       </c>
       <c r="C672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-817285829861093377</t>
+          <t>t-703855663269556224</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-852718859765202945</t>
+          <t>t-703940411761389571</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-852739972473868290</t>
+          <t>t-757365069608923136</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,20 +9215,20 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-919103523458969600</t>
+          <t>t-833843048253681665</t>
         </is>
       </c>
       <c r="B676" t="n">
         <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-922457591313137664</t>
+          <t>t-834648744150892546</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,20 +9241,20 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-922793297873010689</t>
+          <t>t-922457591313137664</t>
         </is>
       </c>
       <c r="B678" t="n">
         <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-822808230711721984</t>
+          <t>t-922793297873010689</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,37 +9267,37 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-935391382331588609</t>
+          <t>t-668452855993511936</t>
         </is>
       </c>
       <c r="B680" t="n">
         <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-935397608851324931</t>
+          <t>t-815040393884467200</t>
         </is>
       </c>
       <c r="B681" t="n">
         <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-935407791757389824</t>
+          <t>t-822808230711721984</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C682" t="n">
         <v>1</v>
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-562992622130954243</t>
+          <t>t-935391382331588609</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-540747270207991808</t>
+          <t>t-935397608851324931</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,24 +9332,24 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-708854826730295296</t>
+          <t>t-935407791757389824</t>
         </is>
       </c>
       <c r="B685" t="n">
         <v>0</v>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-787902147698450432</t>
+          <t>t-558414856756293634</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C686" t="n">
         <v>1</v>
@@ -9358,11 +9358,11 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-787981561949921280</t>
+          <t>t-558416982677422081</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C687" t="n">
         <v>1</v>
@@ -9371,11 +9371,11 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-801652200724451332</t>
+          <t>t-695999176518184960</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -9384,20 +9384,20 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-607931728045338625</t>
+          <t>t-702026039967531008</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-692022677649797120</t>
+          <t>t-723151439586013184</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-960667988255850496</t>
+          <t>t-919895715089932288</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-547361002212188160</t>
+          <t>t-965551093982769152</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,11 +9436,11 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-930542567199997958</t>
+          <t>t-987943018454962177</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-597692277847298049</t>
+          <t>t-544801968703557632</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-814411097864159233</t>
+          <t>t-692022677649797120</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-814414402203983872</t>
+          <t>t-809685070428524546</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,7 +9488,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-814417111921479680</t>
+          <t>t-547361002212188160</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-814418757657296896</t>
+          <t>t-1039555557609201664</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,7 +9514,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-814543705935736832</t>
+          <t>t-597692277847298049</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-1027038929319411712</t>
+          <t>t-812248571802025984</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,46 +9540,46 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-1027057881365901312</t>
+          <t>t-984973285124222976</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-1027179632922046467</t>
+          <t>t-950631505486737408</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-564756286211100672</t>
+          <t>t-950698684148142080</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-565303060420112386</t>
+          <t>t-555130566706622465</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,20 +9592,20 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-565336619021262848</t>
+          <t>t-941661763132579840</t>
         </is>
       </c>
       <c r="B705" t="n">
         <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-579496758595584000</t>
+          <t>t-558523740888109056</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,11 +9618,11 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-658189046523412480</t>
+          <t>t-704474821959163905</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
         <v>1</v>
@@ -9631,7 +9631,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-704474821959163905</t>
+          <t>t-563242661562576896</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,7 +9644,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-832028212376985600</t>
+          <t>t-564304402253508608</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,76 +9657,76 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-832064333504933888</t>
+          <t>t-729180420265279489</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-962542177514500096</t>
+          <t>t-729281192772542465</t>
         </is>
       </c>
       <c r="B711" t="n">
         <v>0</v>
       </c>
       <c r="C711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-741496457824374784</t>
+          <t>t-757432883531304960</t>
         </is>
       </c>
       <c r="B712" t="n">
         <v>0</v>
       </c>
       <c r="C712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-761430337377349632</t>
+          <t>t-978443713629204480</t>
         </is>
       </c>
       <c r="B713" t="n">
         <v>1</v>
       </c>
       <c r="C713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-795497536291094528</t>
+          <t>t-978559522900910080</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-605944627380817920</t>
+          <t>t-584288298249531392</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -9735,7 +9735,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-674136729771577344</t>
+          <t>t-935268837662052353</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,11 +9748,11 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-765452831297970176</t>
+          <t>t-935313787321585664</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="n">
         <v>1</v>
@@ -9761,7 +9761,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-833819761821757440</t>
+          <t>t-935539265307660289</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,24 +9774,24 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-610619808913076224</t>
+          <t>t-935690311879282688</t>
         </is>
       </c>
       <c r="B719" t="n">
         <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-685863458978443264</t>
+          <t>t-936855089326604288</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C720" t="n">
         <v>0</v>
@@ -9800,24 +9800,24 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-796860246736052224</t>
+          <t>t-572370799971053568</t>
         </is>
       </c>
       <c r="B721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-829258775257346048</t>
+          <t>t-765452831297970176</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C722" t="n">
         <v>1</v>
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-829280839464845312</t>
+          <t>t-833819761821757440</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-829291437292396544</t>
+          <t>t-935417453286326277</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-829294998201970688</t>
+          <t>t-675601382867537920</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-829512724761620480</t>
+          <t>t-676436379425894400</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-702431733740920832</t>
+          <t>t-837085298324619265</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-702439207684464640</t>
+          <t>t-683203716623646720</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-745577469814538240</t>
+          <t>t-697592269315010562</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-797677972547219456</t>
+          <t>t-697721034691096580</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-798490523820380160</t>
+          <t>t-946177924222222336</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,7 +9943,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-833891988315336704</t>
+          <t>t-798490523820380160</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -9956,13 +9956,39 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>t-928096679089209344</t>
+          <t>t-816256005461987328</t>
         </is>
       </c>
       <c r="B733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>t-935334721793306624</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>1</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>t-935382314166693889</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>1</v>
+      </c>
+      <c r="C735" t="n">
         <v>1</v>
       </c>
     </row>
